--- a/Scrum/Proyect/Sprint-Backlog v2.xlsx
+++ b/Scrum/Proyect/Sprint-Backlog v2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="37">
   <si>
     <t>Product Backlog Item</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Sprint Review</t>
   </si>
   <si>
-    <t>As a / an website visitor I want to be able to log in to the site so that I can see tailored content and manage my relationship with the company</t>
-  </si>
-  <si>
     <t>Some sprint goal</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Task 6 - Sprint retrospective</t>
   </si>
   <si>
-    <t>Task 7 - Create View to insert data</t>
-  </si>
-  <si>
     <t>Day 5</t>
   </si>
   <si>
@@ -108,6 +102,39 @@
   </si>
   <si>
     <t>Day 8</t>
+  </si>
+  <si>
+    <t>Task 7 - Create View to insert data 1 a</t>
+  </si>
+  <si>
+    <t>Task 8 - Create View to insert data 1 b</t>
+  </si>
+  <si>
+    <t>Task 9 - Create View to insert data 1 c</t>
+  </si>
+  <si>
+    <t>Task 10 - Create View to insert data 1 d</t>
+  </si>
+  <si>
+    <t>Task 11 - Create View to insert data 1 e</t>
+  </si>
+  <si>
+    <t>Task 12 - Sprint backlog creation</t>
+  </si>
+  <si>
+    <t>Task 13 - Daily scrum</t>
+  </si>
+  <si>
+    <t>Task 14 - Sprint review</t>
+  </si>
+  <si>
+    <t>Task 15 - Sprint retrospective</t>
+  </si>
+  <si>
+    <t>Task 16 - Sprint Planning</t>
+  </si>
+  <si>
+    <t>Task 17 - Project Creation</t>
   </si>
 </sst>
 </file>
@@ -337,7 +364,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sprint1!$F$10:$O$10</c:f>
+              <c:f>Sprint1!$F$22:$O$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -449,16 +476,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2629535</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>153035</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>538480</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>281305</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>83185</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -768,7 +795,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -814,16 +841,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>12</v>
@@ -831,13 +858,13 @@
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -876,10 +903,10 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -918,10 +945,10 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -958,14 +985,12 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -1004,10 +1029,10 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1046,10 +1071,10 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -1088,16 +1113,16 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="1">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -1129,65 +1154,474 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2">
-        <f t="shared" ref="E10" si="0">SUM(E2:E8)</f>
-        <v>70</v>
-      </c>
-      <c r="F10" s="2">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
+        <f>SUM(E2:E8)</f>
+        <v>38</v>
+      </c>
+      <c r="F22" s="2">
         <f>SUM(F2:F8)</f>
         <v>2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G22" s="2">
         <f>SUM(G2:G8)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="2">
-        <f t="shared" ref="H10:M10" si="1">SUM(H2:H8)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
+      <c r="H22" s="2">
+        <f>SUM(H2:H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <f>SUM(I2:I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <f>SUM(J2:J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="2">
+        <f>SUM(K2:K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="2">
+        <f>SUM(L2:L8)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <f>SUM(M2:M8)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2">
         <f>SUM(O2:O8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1441,17 +1875,17 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
     <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0d93dc7d-5998-434b-bf34-aa89b432ec07"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Scrum/Proyect/Sprint-Backlog v2.xlsx
+++ b/Scrum/Proyect/Sprint-Backlog v2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint1" sheetId="5" r:id="rId1"/>
@@ -68,9 +68,6 @@
     <t>Some sprint goal</t>
   </si>
   <si>
-    <t>As a user of DonBest I need to use the system to insert start date, end date and on the system, also LogIdUser, so I can save a registry of these activities</t>
-  </si>
-  <si>
     <t>Task 2 - Call SP From view</t>
   </si>
   <si>
@@ -135,13 +132,16 @@
   </si>
   <si>
     <t>Task 17 - Project Creation</t>
+  </si>
+  <si>
+    <t>As a user of DGS I need to use the system to insert start date, end date and on the system, also LogIdUser, so I can save a registry of these activities</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,13 +178,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -196,7 +232,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="23">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -220,8 +256,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -246,8 +285,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="23" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="24" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="25" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="26">
+    <cellStyle name="Accent2" xfId="25" builtinId="33"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -259,6 +308,7 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -270,6 +320,7 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,11 +461,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1851520800"/>
-        <c:axId val="-1851524608"/>
+        <c:axId val="-1105285024"/>
+        <c:axId val="-1105284480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1851520800"/>
+        <c:axId val="-1105285024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -424,7 +475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1851524608"/>
+        <c:crossAx val="-1105284480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -432,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1851524608"/>
+        <c:axId val="-1105284480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,7 +494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-1851520800"/>
+        <c:crossAx val="-1105285024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -795,7 +846,7 @@
   <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -841,16 +892,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>12</v>
@@ -858,13 +909,13 @@
     </row>
     <row r="2" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
@@ -903,10 +954,10 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
@@ -942,13 +993,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
+      <c r="B4" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>9</v>
@@ -984,13 +1035,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
+      <c r="B5" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>9</v>
@@ -1026,13 +1077,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
+      <c r="B6" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -1071,10 +1122,10 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -1113,10 +1164,10 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>9</v>
@@ -1155,10 +1206,10 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>9</v>
@@ -1197,10 +1248,10 @@
     <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>9</v>
@@ -1239,10 +1290,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>9</v>
@@ -1281,10 +1332,10 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
@@ -1320,12 +1371,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
-        <v>31</v>
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
@@ -1361,12 +1412,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
-        <v>32</v>
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -1404,10 +1455,10 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
@@ -1445,10 +1496,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B16" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>9</v>
@@ -1484,12 +1535,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="4" t="s">
-        <v>35</v>
+    <row r="17" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B17" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>9</v>
@@ -1525,12 +1576,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B18" s="4" t="s">
-        <v>36</v>
+    <row r="18" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
@@ -1573,39 +1624,39 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
-        <f>SUM(E2:E8)</f>
+        <f t="shared" ref="E22:M22" si="0">SUM(E2:E8)</f>
         <v>38</v>
       </c>
       <c r="F22" s="2">
-        <f>SUM(F2:F8)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="G22" s="2">
-        <f>SUM(G2:G8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="2">
-        <f>SUM(H2:H8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <f>SUM(I2:I8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J22" s="2">
-        <f>SUM(J2:J8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K22" s="2">
-        <f>SUM(K2:K8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L22" s="2">
-        <f>SUM(L2:L8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M22" s="2">
-        <f>SUM(M2:M8)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22" s="2"/>
@@ -1640,19 +1691,7 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
   <Receiver>
@@ -1696,6 +1735,18 @@
     <Filter/>
   </Receiver>
 </spe:Receivers>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?><p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"><documentManagement><_dlc_DocId xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07">WORK-769-153</_dlc_DocId><_dlc_DocIdUrl xmlns="0d93dc7d-5998-434b-bf34-aa89b432ec07"><Url>http://intranet/workingtogether/projects/110405/_layouts/DocIdRedir.aspx?ID=WORK-769-153</Url><Description>WORK-769-153</Description></_dlc_DocIdUrl><IconOverlay xmlns="http://schemas.microsoft.com/sharepoint/v4" xsi:nil="true"/><Last_x0020_Archive xmlns="$ListId:Shared Documents;" xsi:nil="true"/><Reason xmlns="$ListId:Shared Documents;" xsi:nil="true"></Reason></documentManagement></p:properties>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?><ct:contentTypeSchema ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F770ABC8F9B27C4C8461F4575C23FAEA" ma:contentTypeVersion="1" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6f0f4afd6cc55b40f57cb0d59e49aa45" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes">
@@ -1873,6 +1924,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="$ListId:Shared Documents;"/>
@@ -1886,22 +1953,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v4"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F807D2B-FCE5-4B63-BC9A-551BEF173D66}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
